--- a/p2_draft.xlsx
+++ b/p2_draft.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/julietnwagwuume-ezeoke/_ClassCode/243UrbanSysLocal/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2A876B0-EBE0-C745-AA0F-7E0A83E8FB1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7896D8A0-C193-8547-975A-F0074A3ED2CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{F39234B2-2F8E-49E2-9EEC-0382645B7BF9}"/>
   </bookViews>
@@ -5202,8 +5202,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B6B9477-8B84-44EC-8A2A-578D2361C756}">
   <dimension ref="A1:S99"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5314,7 +5314,7 @@
         <v>2400</v>
       </c>
       <c r="D3">
-        <f t="shared" ref="D3:D66" si="0">IF(D2+H2-L2 &gt; 0, D2+H2-L2, 0)</f>
+        <f>IF(D2+H2-L2 &gt; 0, D2+H2-L2, 0)</f>
         <v>6000</v>
       </c>
       <c r="E3">
@@ -5322,7 +5322,7 @@
         <v>152.89221304632756</v>
       </c>
       <c r="F3">
-        <f t="shared" ref="F3:F66" si="1">$R$10*B3</f>
+        <f>$R$10*B3</f>
         <v>52.5</v>
       </c>
       <c r="G3">
@@ -5368,23 +5368,23 @@
         <v>348.3064390348531</v>
       </c>
       <c r="B4">
-        <f t="shared" ref="B4:B67" si="2">B3+F3-J3</f>
+        <f t="shared" ref="B4:B67" si="0">B3+F3-J3</f>
         <v>551.25</v>
       </c>
       <c r="C4">
-        <f t="shared" ref="C4:C67" si="3">IF(C3+G3-K3 &gt; 0, C3+G3-K3, 0)</f>
+        <f t="shared" ref="C4:C67" si="1">IF(C3+G3-K3 &gt; 0, C3+G3-K3, 0)</f>
         <v>2295</v>
       </c>
       <c r="D4">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="D3:D66" si="2">IF(D3+H3-L3 &gt; 0, D3+H3-L3, 0)</f>
         <v>7005</v>
       </c>
       <c r="E4">
-        <f t="shared" ref="E4:E67" si="4">((E3)^(1+ABS(C4-C3)/$C$2))</f>
+        <f t="shared" ref="E4:E67" si="3">((E3)^(1+ABS(C4-C3)/$C$2))</f>
         <v>188.8554630877608</v>
       </c>
       <c r="F4">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="F3:F66" si="4">$R$10*B4</f>
         <v>55.125</v>
       </c>
       <c r="G4">
@@ -5426,27 +5426,27 @@
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5">
-        <f t="shared" ref="A4:A67" si="11">A4+E4-I4</f>
+        <f t="shared" ref="A5:A67" si="11">A4+E4-I4</f>
         <v>490.02375154269612</v>
       </c>
       <c r="B5">
+        <f t="shared" si="0"/>
+        <v>578.8125</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="1"/>
+        <v>2184.75</v>
+      </c>
+      <c r="D5">
         <f t="shared" si="2"/>
-        <v>578.8125</v>
-      </c>
-      <c r="C5">
+        <v>8015.25</v>
+      </c>
+      <c r="E5">
         <f t="shared" si="3"/>
-        <v>2184.75</v>
-      </c>
-      <c r="D5">
-        <f t="shared" si="0"/>
-        <v>8015.25</v>
-      </c>
-      <c r="E5">
+        <v>237.9615919072472</v>
+      </c>
+      <c r="F5">
         <f t="shared" si="4"/>
-        <v>237.9615919072472</v>
-      </c>
-      <c r="F5">
-        <f t="shared" si="1"/>
         <v>57.881250000000001</v>
       </c>
       <c r="G5">
@@ -5492,23 +5492,23 @@
         <v>661.66784024224501</v>
       </c>
       <c r="B6">
+        <f t="shared" si="0"/>
+        <v>607.75312500000007</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="1"/>
+        <v>2068.9875000000002</v>
+      </c>
+      <c r="D6">
         <f t="shared" si="2"/>
-        <v>607.75312500000007</v>
-      </c>
-      <c r="C6">
+        <v>9031.0124999999989</v>
+      </c>
+      <c r="E6">
         <f t="shared" si="3"/>
-        <v>2068.9875000000002</v>
-      </c>
-      <c r="D6">
-        <f t="shared" si="0"/>
-        <v>9031.0124999999989</v>
-      </c>
-      <c r="E6">
+        <v>306.58507997384777</v>
+      </c>
+      <c r="F6">
         <f t="shared" si="4"/>
-        <v>306.58507997384777</v>
-      </c>
-      <c r="F6">
-        <f t="shared" si="1"/>
         <v>60.775312500000013</v>
       </c>
       <c r="G6">
@@ -5554,23 +5554,23 @@
         <v>878.7059156483507</v>
       </c>
       <c r="B7">
+        <f t="shared" si="0"/>
+        <v>638.14078125000015</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="1"/>
+        <v>1947.4368750000001</v>
+      </c>
+      <c r="D7">
         <f t="shared" si="2"/>
-        <v>638.14078125000015</v>
-      </c>
-      <c r="C7">
+        <v>10052.563124999999</v>
+      </c>
+      <c r="E7">
         <f t="shared" si="3"/>
-        <v>1947.4368750000001</v>
-      </c>
-      <c r="D7">
-        <f t="shared" si="0"/>
-        <v>10052.563124999999</v>
-      </c>
-      <c r="E7">
+        <v>404.99321561277702</v>
+      </c>
+      <c r="F7">
         <f t="shared" si="4"/>
-        <v>404.99321561277702</v>
-      </c>
-      <c r="F7">
-        <f t="shared" si="1"/>
         <v>63.814078125000016</v>
       </c>
       <c r="G7">
@@ -5616,23 +5616,23 @@
         <v>1164.7792172851709</v>
       </c>
       <c r="B8">
+        <f t="shared" si="0"/>
+        <v>670.04782031250022</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="1"/>
+        <v>1819.80871875</v>
+      </c>
+      <c r="D8">
         <f t="shared" si="2"/>
-        <v>670.04782031250022</v>
-      </c>
-      <c r="C8">
+        <v>11080.191281249998</v>
+      </c>
+      <c r="E8">
         <f t="shared" si="3"/>
-        <v>1819.80871875</v>
-      </c>
-      <c r="D8">
-        <f t="shared" si="0"/>
-        <v>11080.191281249998</v>
-      </c>
-      <c r="E8">
+        <v>550.25151565104659</v>
+      </c>
+      <c r="F8">
         <f t="shared" si="4"/>
-        <v>550.25151565104659</v>
-      </c>
-      <c r="F8">
-        <f t="shared" si="1"/>
         <v>67.004782031250031</v>
       </c>
       <c r="G8">
@@ -5678,23 +5678,23 @@
         <v>1557.395007656809</v>
       </c>
       <c r="B9">
+        <f t="shared" si="0"/>
+        <v>703.55021132812522</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="1"/>
+        <v>1685.7991546875</v>
+      </c>
+      <c r="D9">
         <f t="shared" si="2"/>
-        <v>703.55021132812522</v>
-      </c>
-      <c r="C9">
+        <v>12114.200845312498</v>
+      </c>
+      <c r="E9">
         <f t="shared" si="3"/>
-        <v>1685.7991546875</v>
-      </c>
-      <c r="D9">
-        <f t="shared" si="0"/>
-        <v>12114.200845312498</v>
-      </c>
-      <c r="E9">
+        <v>771.730766748978</v>
+      </c>
+      <c r="F9">
         <f t="shared" si="4"/>
-        <v>771.730766748978</v>
-      </c>
-      <c r="F9">
-        <f t="shared" si="1"/>
         <v>70.355021132812524</v>
       </c>
       <c r="G9">
@@ -5740,23 +5740,23 @@
         <v>2118.355279933266</v>
       </c>
       <c r="B10">
+        <f t="shared" si="0"/>
+        <v>738.72772189453156</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="1"/>
+        <v>1545.0891124218751</v>
+      </c>
+      <c r="D10">
         <f t="shared" si="2"/>
-        <v>738.72772189453156</v>
-      </c>
-      <c r="C10">
+        <v>13154.910887578122</v>
+      </c>
+      <c r="E10">
         <f t="shared" si="3"/>
-        <v>1545.0891124218751</v>
-      </c>
-      <c r="D10">
-        <f t="shared" si="0"/>
-        <v>13154.910887578122</v>
-      </c>
-      <c r="E10">
+        <v>1121.9770910774946</v>
+      </c>
+      <c r="F10">
         <f t="shared" si="4"/>
-        <v>1121.9770910774946</v>
-      </c>
-      <c r="F10">
-        <f t="shared" si="1"/>
         <v>73.872772189453158</v>
       </c>
       <c r="G10">
@@ -5802,23 +5802,23 @@
         <v>2953.6441592052179</v>
       </c>
       <c r="B11">
+        <f t="shared" si="0"/>
+        <v>775.66410798925813</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="1"/>
+        <v>1397.3435680429689</v>
+      </c>
+      <c r="D11">
         <f t="shared" si="2"/>
-        <v>775.66410798925813</v>
-      </c>
-      <c r="C11">
+        <v>14202.656431957028</v>
+      </c>
+      <c r="E11">
         <f t="shared" si="3"/>
-        <v>1397.3435680429689</v>
-      </c>
-      <c r="D11">
-        <f t="shared" si="0"/>
-        <v>14202.656431957028</v>
-      </c>
-      <c r="E11">
+        <v>1699.1534724765825</v>
+      </c>
+      <c r="F11">
         <f t="shared" si="4"/>
-        <v>1699.1534724765825</v>
-      </c>
-      <c r="F11">
-        <f t="shared" si="1"/>
         <v>77.566410798925816</v>
       </c>
       <c r="G11">
@@ -5864,23 +5864,23 @@
         <v>4253.0653628155951</v>
       </c>
       <c r="B12">
+        <f t="shared" si="0"/>
+        <v>814.44731338872111</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="1"/>
+        <v>1242.2107464451174</v>
+      </c>
+      <c r="D12">
         <f t="shared" si="2"/>
-        <v>814.44731338872111</v>
-      </c>
-      <c r="C12">
+        <v>15257.78925355488</v>
+      </c>
+      <c r="E12">
         <f t="shared" si="3"/>
-        <v>1242.2107464451174</v>
-      </c>
-      <c r="D12">
-        <f t="shared" si="0"/>
-        <v>15257.78925355488</v>
-      </c>
-      <c r="E12">
+        <v>2695.743997763188</v>
+      </c>
+      <c r="F12">
         <f t="shared" si="4"/>
-        <v>2695.743997763188</v>
-      </c>
-      <c r="F12">
-        <f t="shared" si="1"/>
         <v>81.444731338872117</v>
       </c>
       <c r="G12">
@@ -5926,23 +5926,23 @@
         <v>6373.2195550783081</v>
       </c>
       <c r="B13">
+        <f t="shared" si="0"/>
+        <v>855.16967905815716</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="1"/>
+        <v>1079.3212837673732</v>
+      </c>
+      <c r="D13">
         <f t="shared" si="2"/>
-        <v>855.16967905815716</v>
-      </c>
-      <c r="C13">
+        <v>16320.678716232624</v>
+      </c>
+      <c r="E13">
         <f t="shared" si="3"/>
-        <v>1079.3212837673732</v>
-      </c>
-      <c r="D13">
-        <f t="shared" si="0"/>
-        <v>16320.678716232624</v>
-      </c>
-      <c r="E13">
+        <v>4510.3184629018142</v>
+      </c>
+      <c r="F13">
         <f t="shared" si="4"/>
-        <v>4510.3184629018142</v>
-      </c>
-      <c r="F13">
-        <f t="shared" si="1"/>
         <v>85.516967905815719</v>
       </c>
       <c r="G13">
@@ -5988,23 +5988,23 @@
         <v>10021.01654436448</v>
       </c>
       <c r="B14">
+        <f t="shared" si="0"/>
+        <v>897.92816301106495</v>
+      </c>
+      <c r="C14">
+        <f t="shared" si="1"/>
+        <v>908.28734795574178</v>
+      </c>
+      <c r="D14">
         <f t="shared" si="2"/>
-        <v>897.92816301106495</v>
-      </c>
-      <c r="C14">
+        <v>17391.712652044254</v>
+      </c>
+      <c r="E14">
         <f t="shared" si="3"/>
-        <v>908.28734795574178</v>
-      </c>
-      <c r="D14">
-        <f t="shared" si="0"/>
-        <v>17391.712652044254</v>
-      </c>
-      <c r="E14">
+        <v>8020.5580021941596</v>
+      </c>
+      <c r="F14">
         <f t="shared" si="4"/>
-        <v>8020.5580021941596</v>
-      </c>
-      <c r="F14">
-        <f t="shared" si="1"/>
         <v>89.792816301106498</v>
       </c>
       <c r="G14">
@@ -6047,23 +6047,23 @@
         <v>16685.377434208291</v>
       </c>
       <c r="B15">
+        <f t="shared" si="0"/>
+        <v>942.82457116161822</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="1"/>
+        <v>728.70171535352881</v>
+      </c>
+      <c r="D15">
         <f t="shared" si="2"/>
-        <v>942.82457116161822</v>
-      </c>
-      <c r="C15">
+        <v>18471.298284646469</v>
+      </c>
+      <c r="E15">
         <f t="shared" si="3"/>
-        <v>728.70171535352881</v>
-      </c>
-      <c r="D15">
-        <f t="shared" si="0"/>
-        <v>18471.298284646469</v>
-      </c>
-      <c r="E15">
+        <v>15298.899927488304</v>
+      </c>
+      <c r="F15">
         <f t="shared" si="4"/>
-        <v>15298.899927488304</v>
-      </c>
-      <c r="F15">
-        <f t="shared" si="1"/>
         <v>94.282457116161822</v>
       </c>
       <c r="G15">
@@ -6106,23 +6106,23 @@
         <v>29726.15708072823</v>
       </c>
       <c r="B16">
+        <f t="shared" si="0"/>
+        <v>989.96579971969913</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="1"/>
+        <v>540.13680112120517</v>
+      </c>
+      <c r="D16">
         <f t="shared" si="2"/>
-        <v>989.96579971969913</v>
-      </c>
-      <c r="C16">
+        <v>19559.863198878793</v>
+      </c>
+      <c r="E16">
         <f t="shared" si="3"/>
-        <v>540.13680112120517</v>
-      </c>
-      <c r="D16">
-        <f t="shared" si="0"/>
-        <v>19559.863198878793</v>
-      </c>
-      <c r="E16">
+        <v>31644.063025216474</v>
+      </c>
+      <c r="F16">
         <f t="shared" si="4"/>
-        <v>31644.063025216474</v>
-      </c>
-      <c r="F16">
-        <f t="shared" si="1"/>
         <v>98.996579971969922</v>
       </c>
       <c r="G16">
@@ -6165,23 +6165,23 @@
         <v>57347.222217888309</v>
       </c>
       <c r="B17">
+        <f t="shared" si="0"/>
+        <v>1039.464089705684</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="1"/>
+        <v>342.14364117726541</v>
+      </c>
+      <c r="D17">
         <f t="shared" si="2"/>
-        <v>1039.464089705684</v>
-      </c>
-      <c r="C17">
+        <v>20657.856358822733</v>
+      </c>
+      <c r="E17">
         <f t="shared" si="3"/>
-        <v>342.14364117726541</v>
-      </c>
-      <c r="D17">
-        <f t="shared" si="0"/>
-        <v>20657.856358822733</v>
-      </c>
-      <c r="E17">
+        <v>71895.725973242108</v>
+      </c>
+      <c r="F17">
         <f t="shared" si="4"/>
-        <v>71895.725973242108</v>
-      </c>
-      <c r="F17">
-        <f t="shared" si="1"/>
         <v>103.94640897056841</v>
       </c>
       <c r="G17">
@@ -6224,23 +6224,23 @@
         <v>121481.84562943953</v>
       </c>
       <c r="B18">
+        <f t="shared" si="0"/>
+        <v>1091.4372941909683</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="1"/>
+        <v>134.25082323612864</v>
+      </c>
+      <c r="D18">
         <f t="shared" si="2"/>
-        <v>1091.4372941909683</v>
-      </c>
-      <c r="C18">
+        <v>21765.749176763868</v>
+      </c>
+      <c r="E18">
         <f t="shared" si="3"/>
-        <v>134.25082323612864</v>
-      </c>
-      <c r="D18">
-        <f t="shared" si="0"/>
-        <v>21765.749176763868</v>
-      </c>
-      <c r="E18">
+        <v>182210.1428180949</v>
+      </c>
+      <c r="F18">
         <f t="shared" si="4"/>
-        <v>182210.1428180949</v>
-      </c>
-      <c r="F18">
-        <f t="shared" si="1"/>
         <v>109.14372941909683</v>
       </c>
       <c r="G18">
@@ -6283,23 +6283,23 @@
         <v>287251.20846116776</v>
       </c>
       <c r="B19">
+        <f t="shared" si="0"/>
+        <v>1146.0091589005167</v>
+      </c>
+      <c r="C19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D19">
         <f t="shared" si="2"/>
-        <v>1146.0091589005167</v>
-      </c>
-      <c r="C19">
+        <v>22884.03663560206</v>
+      </c>
+      <c r="E19">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="D19">
-        <f t="shared" si="0"/>
-        <v>22884.03663560206</v>
-      </c>
-      <c r="E19">
+        <v>349194.20406467165</v>
+      </c>
+      <c r="F19">
         <f t="shared" si="4"/>
-        <v>349194.20406467165</v>
-      </c>
-      <c r="F19">
-        <f t="shared" si="1"/>
         <v>114.60091589005168</v>
       </c>
       <c r="G19">
@@ -6342,23 +6342,23 @@
         <v>597570.18886868795</v>
       </c>
       <c r="B20">
+        <f t="shared" si="0"/>
+        <v>1203.3096168455427</v>
+      </c>
+      <c r="C20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D20">
         <f t="shared" si="2"/>
-        <v>1203.3096168455427</v>
-      </c>
-      <c r="C20">
+        <v>24013.238467382162</v>
+      </c>
+      <c r="E20">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="D20">
-        <f t="shared" si="0"/>
-        <v>24013.238467382162</v>
-      </c>
-      <c r="E20">
+        <v>349194.20406467165</v>
+      </c>
+      <c r="F20">
         <f t="shared" si="4"/>
-        <v>349194.20406467165</v>
-      </c>
-      <c r="F20">
-        <f t="shared" si="1"/>
         <v>120.33096168455427</v>
       </c>
       <c r="G20">
@@ -6396,23 +6396,23 @@
         <v>865892.06216905953</v>
       </c>
       <c r="B21">
+        <f t="shared" si="0"/>
+        <v>1263.4750976878199</v>
+      </c>
+      <c r="C21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D21">
         <f t="shared" si="2"/>
-        <v>1263.4750976878199</v>
-      </c>
-      <c r="C21">
+        <v>25153.900390751271</v>
+      </c>
+      <c r="E21">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="D21">
-        <f t="shared" si="0"/>
-        <v>25153.900390751271</v>
-      </c>
-      <c r="E21">
+        <v>349194.20406467165</v>
+      </c>
+      <c r="F21">
         <f t="shared" si="4"/>
-        <v>349194.20406467165</v>
-      </c>
-      <c r="F21">
-        <f t="shared" si="1"/>
         <v>126.347509768782</v>
       </c>
       <c r="G21">
@@ -6450,23 +6450,23 @@
         <v>1097900.5187477467</v>
       </c>
       <c r="B22">
+        <f t="shared" si="0"/>
+        <v>1326.6488525722109</v>
+      </c>
+      <c r="C22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D22">
         <f t="shared" si="2"/>
-        <v>1326.6488525722109</v>
-      </c>
-      <c r="C22">
+        <v>26306.595410288835</v>
+      </c>
+      <c r="E22">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="D22">
-        <f t="shared" si="0"/>
-        <v>26306.595410288835</v>
-      </c>
-      <c r="E22">
+        <v>349194.20406467165</v>
+      </c>
+      <c r="F22">
         <f t="shared" si="4"/>
-        <v>349194.20406467165</v>
-      </c>
-      <c r="F22">
-        <f t="shared" si="1"/>
         <v>132.6648852572211</v>
       </c>
       <c r="G22">
@@ -6504,23 +6504,23 @@
         <v>1298510.0451420681</v>
       </c>
       <c r="B23">
+        <f t="shared" si="0"/>
+        <v>1392.9812952008215</v>
+      </c>
+      <c r="C23">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D23">
         <f t="shared" si="2"/>
-        <v>1392.9812952008215</v>
-      </c>
-      <c r="C23">
+        <v>27471.925180803275</v>
+      </c>
+      <c r="E23">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="D23">
-        <f t="shared" si="0"/>
-        <v>27471.925180803275</v>
-      </c>
-      <c r="E23">
+        <v>349194.20406467165</v>
+      </c>
+      <c r="F23">
         <f t="shared" si="4"/>
-        <v>349194.20406467165</v>
-      </c>
-      <c r="F23">
-        <f t="shared" si="1"/>
         <v>139.29812952008214</v>
       </c>
       <c r="G23">
@@ -6558,23 +6558,23 @@
         <v>1471970.0244618512</v>
       </c>
       <c r="B24">
+        <f t="shared" si="0"/>
+        <v>1462.6303599608625</v>
+      </c>
+      <c r="C24">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D24">
         <f t="shared" si="2"/>
-        <v>1462.6303599608625</v>
-      </c>
-      <c r="C24">
+        <v>28650.52143984344</v>
+      </c>
+      <c r="E24">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="D24">
-        <f t="shared" si="0"/>
-        <v>28650.52143984344</v>
-      </c>
-      <c r="E24">
+        <v>349194.20406467165</v>
+      </c>
+      <c r="F24">
         <f t="shared" si="4"/>
-        <v>349194.20406467165</v>
-      </c>
-      <c r="F24">
-        <f t="shared" si="1"/>
         <v>146.26303599608624</v>
       </c>
       <c r="G24">
@@ -6612,23 +6612,23 @@
         <v>1621954.7483501746</v>
       </c>
       <c r="B25">
+        <f t="shared" si="0"/>
+        <v>1535.7618779589056</v>
+      </c>
+      <c r="C25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D25">
         <f t="shared" si="2"/>
-        <v>1535.7618779589056</v>
-      </c>
-      <c r="C25">
+        <v>29843.047511835612</v>
+      </c>
+      <c r="E25">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="D25">
-        <f t="shared" si="0"/>
-        <v>29843.047511835612</v>
-      </c>
-      <c r="E25">
+        <v>349194.20406467165</v>
+      </c>
+      <c r="F25">
         <f t="shared" si="4"/>
-        <v>349194.20406467165</v>
-      </c>
-      <c r="F25">
-        <f t="shared" si="1"/>
         <v>153.57618779589058</v>
       </c>
       <c r="G25">
@@ -6666,23 +6666,23 @@
         <v>1751641.2471499066</v>
       </c>
       <c r="B26">
+        <f t="shared" si="0"/>
+        <v>1612.5499718568508</v>
+      </c>
+      <c r="C26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D26">
         <f t="shared" si="2"/>
-        <v>1612.5499718568508</v>
-      </c>
-      <c r="C26">
+        <v>30985.613460178582</v>
+      </c>
+      <c r="E26">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="D26">
-        <f t="shared" si="0"/>
-        <v>30985.613460178582</v>
-      </c>
-      <c r="E26">
+        <v>349194.20406467165</v>
+      </c>
+      <c r="F26">
         <f t="shared" si="4"/>
-        <v>349194.20406467165</v>
-      </c>
-      <c r="F26">
-        <f t="shared" si="1"/>
         <v>161.25499718568508</v>
       </c>
       <c r="G26">
@@ -6720,23 +6720,23 @@
         <v>1863776.5869026119</v>
       </c>
       <c r="B27">
+        <f t="shared" si="0"/>
+        <v>1693.1774704496934</v>
+      </c>
+      <c r="C27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D27">
         <f t="shared" si="2"/>
-        <v>1693.1774704496934</v>
-      </c>
-      <c r="C27">
+        <v>31989.481766944762</v>
+      </c>
+      <c r="E27">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="D27">
-        <f t="shared" si="0"/>
-        <v>31989.481766944762</v>
-      </c>
-      <c r="E27">
+        <v>349194.20406467165</v>
+      </c>
+      <c r="F27">
         <f t="shared" si="4"/>
-        <v>349194.20406467165</v>
-      </c>
-      <c r="F27">
-        <f t="shared" si="1"/>
         <v>169.31774704496934</v>
       </c>
       <c r="G27">
@@ -6773,23 +6773,23 @@
         <v>1960736.0586890515</v>
       </c>
       <c r="B28">
+        <f t="shared" si="0"/>
+        <v>1777.8363439721779</v>
+      </c>
+      <c r="C28">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D28">
         <f t="shared" si="2"/>
-        <v>1777.8363439721779</v>
-      </c>
-      <c r="C28">
+        <v>32777.283700970482</v>
+      </c>
+      <c r="E28">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="D28">
-        <f t="shared" si="0"/>
-        <v>32777.283700970482</v>
-      </c>
-      <c r="E28">
+        <v>349194.20406467165</v>
+      </c>
+      <c r="F28">
         <f t="shared" si="4"/>
-        <v>349194.20406467165</v>
-      </c>
-      <c r="F28">
-        <f t="shared" si="1"/>
         <v>177.78363439721781</v>
       </c>
       <c r="G28">
@@ -6826,23 +6826,23 @@
         <v>2044573.4928988009</v>
       </c>
       <c r="B29">
+        <f t="shared" si="0"/>
+        <v>1866.728161170787</v>
+      </c>
+      <c r="C29">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D29">
         <f t="shared" si="2"/>
-        <v>1866.728161170787</v>
-      </c>
-      <c r="C29">
+        <v>33295.987089163966</v>
+      </c>
+      <c r="E29">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="D29">
-        <f t="shared" si="0"/>
-        <v>33295.987089163966</v>
-      </c>
-      <c r="E29">
+        <v>349194.20406467165</v>
+      </c>
+      <c r="F29">
         <f t="shared" si="4"/>
-        <v>349194.20406467165</v>
-      </c>
-      <c r="F29">
-        <f t="shared" si="1"/>
         <v>186.6728161170787</v>
       </c>
       <c r="G29">
@@ -6879,23 +6879,23 @@
         <v>2117064.7642039424</v>
       </c>
       <c r="B30">
+        <f t="shared" si="0"/>
+        <v>1960.0645692293265</v>
+      </c>
+      <c r="C30">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D30">
         <f t="shared" si="2"/>
-        <v>1960.0645692293265</v>
-      </c>
-      <c r="C30">
+        <v>33525.501910570354</v>
+      </c>
+      <c r="E30">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="D30">
-        <f t="shared" si="0"/>
-        <v>33525.501910570354</v>
-      </c>
-      <c r="E30">
+        <v>349194.20406467165</v>
+      </c>
+      <c r="F30">
         <f t="shared" si="4"/>
-        <v>349194.20406467165</v>
-      </c>
-      <c r="F30">
-        <f t="shared" si="1"/>
         <v>196.00645692293267</v>
       </c>
       <c r="G30">
@@ -6932,23 +6932,23 @@
         <v>2179745.4087748211</v>
       </c>
       <c r="B31">
+        <f t="shared" si="0"/>
+        <v>2058.0677976907928</v>
+      </c>
+      <c r="C31">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D31">
         <f t="shared" si="2"/>
-        <v>2058.0677976907928</v>
-      </c>
-      <c r="C31">
+        <v>33480.014929618214</v>
+      </c>
+      <c r="E31">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="D31">
-        <f t="shared" si="0"/>
-        <v>33480.014929618214</v>
-      </c>
-      <c r="E31">
+        <v>349194.20406467165</v>
+      </c>
+      <c r="F31">
         <f t="shared" si="4"/>
-        <v>349194.20406467165</v>
-      </c>
-      <c r="F31">
-        <f t="shared" si="1"/>
         <v>205.8067797690793</v>
       </c>
       <c r="G31">
@@ -6985,23 +6985,23 @@
         <v>2233943.1505592465</v>
       </c>
       <c r="B32">
+        <f t="shared" si="0"/>
+        <v>2160.9711875753324</v>
+      </c>
+      <c r="C32">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D32">
         <f t="shared" si="2"/>
-        <v>2160.9711875753324</v>
-      </c>
-      <c r="C32">
+        <v>33201.307238202957</v>
+      </c>
+      <c r="E32">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="D32">
-        <f t="shared" si="0"/>
-        <v>33201.307238202957</v>
-      </c>
-      <c r="E32">
+        <v>349194.20406467165</v>
+      </c>
+      <c r="F32">
         <f t="shared" si="4"/>
-        <v>349194.20406467165</v>
-      </c>
-      <c r="F32">
-        <f t="shared" si="1"/>
         <v>216.09711875753325</v>
       </c>
       <c r="G32">
@@ -7038,23 +7038,23 @@
         <v>2280806.0256084921</v>
       </c>
       <c r="B33">
+        <f t="shared" si="0"/>
+        <v>2269.019746954099</v>
+      </c>
+      <c r="C33">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D33">
         <f t="shared" si="2"/>
-        <v>2269.019746954099</v>
-      </c>
-      <c r="C33">
+        <v>32746.141452957381</v>
+      </c>
+      <c r="E33">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="D33">
-        <f t="shared" si="0"/>
-        <v>32746.141452957381</v>
-      </c>
-      <c r="E33">
+        <v>349194.20406467165</v>
+      </c>
+      <c r="F33">
         <f t="shared" si="4"/>
-        <v>349194.20406467165</v>
-      </c>
-      <c r="F33">
-        <f t="shared" si="1"/>
         <v>226.9019746954099</v>
       </c>
       <c r="G33">
@@ -7091,23 +7091,23 @@
         <v>2321326.7001896659</v>
       </c>
       <c r="B34">
+        <f t="shared" si="0"/>
+        <v>2382.470734301804</v>
+      </c>
+      <c r="C34">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D34">
         <f t="shared" si="2"/>
-        <v>2382.470734301804</v>
-      </c>
-      <c r="C34">
+        <v>32172.030571292558</v>
+      </c>
+      <c r="E34">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="D34">
-        <f t="shared" si="0"/>
-        <v>32172.030571292558</v>
-      </c>
-      <c r="E34">
+        <v>349194.20406467165</v>
+      </c>
+      <c r="F34">
         <f t="shared" si="4"/>
-        <v>349194.20406467165</v>
-      </c>
-      <c r="F34">
-        <f t="shared" si="1"/>
         <v>238.24707343018042</v>
       </c>
       <c r="G34">
@@ -7144,23 +7144,23 @@
         <v>2356363.497799458</v>
       </c>
       <c r="B35">
+        <f t="shared" si="0"/>
+        <v>2501.5942710168943</v>
+      </c>
+      <c r="C35">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D35">
         <f t="shared" si="2"/>
-        <v>2501.5942710168943</v>
-      </c>
-      <c r="C35">
+        <v>31526.101169995371</v>
+      </c>
+      <c r="E35">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="D35">
-        <f t="shared" si="0"/>
-        <v>31526.101169995371</v>
-      </c>
-      <c r="E35">
+        <v>349194.20406467165</v>
+      </c>
+      <c r="F35">
         <f t="shared" si="4"/>
-        <v>349194.20406467165</v>
-      </c>
-      <c r="F35">
-        <f t="shared" si="1"/>
         <v>250.15942710168943</v>
       </c>
       <c r="G35">
@@ -7197,23 +7197,23 @@
         <v>2386658.5804810249</v>
       </c>
       <c r="B36">
+        <f t="shared" si="0"/>
+        <v>2626.6739845677389</v>
+      </c>
+      <c r="C36">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D36">
         <f t="shared" si="2"/>
-        <v>2626.6739845677389</v>
-      </c>
-      <c r="C36">
+        <v>30840.002656379223</v>
+      </c>
+      <c r="E36">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="D36">
-        <f t="shared" si="0"/>
-        <v>30840.002656379223</v>
-      </c>
-      <c r="E36">
+        <v>349194.20406467165</v>
+      </c>
+      <c r="F36">
         <f t="shared" si="4"/>
-        <v>349194.20406467165</v>
-      </c>
-      <c r="F36">
-        <f t="shared" si="1"/>
         <v>262.66739845677392</v>
       </c>
       <c r="G36">
@@ -7250,23 +7250,23 @@
         <v>2412853.669567205</v>
       </c>
       <c r="B37">
+        <f t="shared" si="0"/>
+        <v>2758.0076837961255</v>
+      </c>
+      <c r="C37">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D37">
         <f t="shared" si="2"/>
-        <v>2758.0076837961255</v>
-      </c>
-      <c r="C37">
+        <v>30130.834794459046</v>
+      </c>
+      <c r="E37">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="D37">
-        <f t="shared" si="0"/>
-        <v>30130.834794459046</v>
-      </c>
-      <c r="E37">
+        <v>349194.20406467165</v>
+      </c>
+      <c r="F37">
         <f t="shared" si="4"/>
-        <v>349194.20406467165</v>
-      </c>
-      <c r="F37">
-        <f t="shared" si="1"/>
         <v>275.80076837961258</v>
       </c>
       <c r="G37">
@@ -7303,23 +7303,23 @@
         <v>2435503.638852499</v>
       </c>
       <c r="B38">
+        <f t="shared" si="0"/>
+        <v>2895.9080679859321</v>
+      </c>
+      <c r="C38">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D38">
         <f t="shared" si="2"/>
-        <v>2895.9080679859321</v>
-      </c>
-      <c r="C38">
+        <v>29405.59860004752</v>
+      </c>
+      <c r="E38">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="D38">
-        <f t="shared" si="0"/>
-        <v>29405.59860004752</v>
-      </c>
-      <c r="E38">
+        <v>349194.20406467165</v>
+      </c>
+      <c r="F38">
         <f t="shared" si="4"/>
-        <v>349194.20406467165</v>
-      </c>
-      <c r="F38">
-        <f t="shared" si="1"/>
         <v>289.59080679859323</v>
       </c>
       <c r="G38">
@@ -7356,23 +7356,23 @@
         <v>2455088.2681292663</v>
       </c>
       <c r="B39">
+        <f t="shared" si="0"/>
+        <v>3040.703471385229</v>
+      </c>
+      <c r="C39">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D39">
         <f t="shared" si="2"/>
-        <v>3040.703471385229</v>
-      </c>
-      <c r="C39">
+        <v>28666.046971645661</v>
+      </c>
+      <c r="E39">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="D39">
-        <f t="shared" si="0"/>
-        <v>28666.046971645661</v>
-      </c>
-      <c r="E39">
+        <v>349194.20406467165</v>
+      </c>
+      <c r="F39">
         <f t="shared" si="4"/>
-        <v>349194.20406467165</v>
-      </c>
-      <c r="F39">
-        <f t="shared" si="1"/>
         <v>304.07034713852289</v>
       </c>
       <c r="G39">
@@ -7409,23 +7409,23 @@
         <v>2472022.4060557787</v>
       </c>
       <c r="B40">
+        <f t="shared" si="0"/>
+        <v>3192.7386449544902</v>
+      </c>
+      <c r="C40">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D40">
         <f t="shared" si="2"/>
-        <v>3192.7386449544902</v>
-      </c>
-      <c r="C40">
+        <v>27911.97556137597</v>
+      </c>
+      <c r="E40">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="D40">
-        <f t="shared" si="0"/>
-        <v>27911.97556137597</v>
-      </c>
-      <c r="E40">
+        <v>349194.20406467165</v>
+      </c>
+      <c r="F40">
         <f t="shared" si="4"/>
-        <v>349194.20406467165</v>
-      </c>
-      <c r="F40">
-        <f t="shared" si="1"/>
         <v>319.27386449544906</v>
       </c>
       <c r="G40">
@@ -7462,23 +7462,23 @@
         <v>2486664.7576296385</v>
       </c>
       <c r="B41">
+        <f t="shared" si="0"/>
+        <v>3352.3755772022146</v>
+      </c>
+      <c r="C41">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D41">
         <f t="shared" si="2"/>
-        <v>3352.3755772022146</v>
-      </c>
-      <c r="C41">
+        <v>27142.701833484829</v>
+      </c>
+      <c r="E41">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="D41">
-        <f t="shared" si="0"/>
-        <v>27142.701833484829</v>
-      </c>
-      <c r="E41">
+        <v>349194.20406467165</v>
+      </c>
+      <c r="F41">
         <f t="shared" si="4"/>
-        <v>349194.20406467165</v>
-      </c>
-      <c r="F41">
-        <f t="shared" si="1"/>
         <v>335.2375577202215</v>
       </c>
       <c r="G41">
@@ -7515,23 +7515,23 @@
         <v>2499325.4824060006</v>
       </c>
       <c r="B42">
+        <f t="shared" si="0"/>
+        <v>3519.9943560623251</v>
+      </c>
+      <c r="C42">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D42">
         <f t="shared" si="2"/>
-        <v>3519.9943560623251</v>
-      </c>
-      <c r="C42">
+        <v>26357.464243673927</v>
+      </c>
+      <c r="E42">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="D42">
-        <f t="shared" si="0"/>
-        <v>26357.464243673927</v>
-      </c>
-      <c r="E42">
+        <v>349194.20406467165</v>
+      </c>
+      <c r="F42">
         <f t="shared" si="4"/>
-        <v>349194.20406467165</v>
-      </c>
-      <c r="F42">
-        <f t="shared" si="1"/>
         <v>351.99943560623251</v>
       </c>
       <c r="G42">
@@ -7568,23 +7568,23 @@
         <v>2510272.7644087728</v>
       </c>
       <c r="B43">
+        <f t="shared" si="0"/>
+        <v>3695.9940738654414</v>
+      </c>
+      <c r="C43">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D43">
         <f t="shared" si="2"/>
-        <v>3695.9940738654414</v>
-      </c>
-      <c r="C43">
+        <v>25555.464819192341</v>
+      </c>
+      <c r="E43">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="D43">
-        <f t="shared" si="0"/>
-        <v>25555.464819192341</v>
-      </c>
-      <c r="E43">
+        <v>349194.20406467165</v>
+      </c>
+      <c r="F43">
         <f t="shared" si="4"/>
-        <v>349194.20406467165</v>
-      </c>
-      <c r="F43">
-        <f t="shared" si="1"/>
         <v>369.59940738654416</v>
       </c>
       <c r="G43">
@@ -7621,23 +7621,23 @@
         <v>2519738.4929010286</v>
       </c>
       <c r="B44">
+        <f t="shared" si="0"/>
+        <v>3880.7937775587134</v>
+      </c>
+      <c r="C44">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D44">
         <f t="shared" si="2"/>
-        <v>3880.7937775587134</v>
-      </c>
-      <c r="C44">
+        <v>24735.865406644003</v>
+      </c>
+      <c r="E44">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="D44">
-        <f t="shared" si="0"/>
-        <v>24735.865406644003</v>
-      </c>
-      <c r="E44">
+        <v>349194.20406467165</v>
+      </c>
+      <c r="F44">
         <f t="shared" si="4"/>
-        <v>349194.20406467165</v>
-      </c>
-      <c r="F44">
-        <f t="shared" si="1"/>
         <v>388.07937775587135</v>
       </c>
       <c r="G44">
@@ -7674,23 +7674,23 @@
         <v>2527923.1743467436</v>
       </c>
       <c r="B45">
+        <f t="shared" si="0"/>
+        <v>4074.8334664366489</v>
+      </c>
+      <c r="C45">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D45">
         <f t="shared" si="2"/>
-        <v>4074.8334664366489</v>
-      </c>
-      <c r="C45">
+        <v>23897.786031919113</v>
+      </c>
+      <c r="E45">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="D45">
-        <f t="shared" si="0"/>
-        <v>23897.786031919113</v>
-      </c>
-      <c r="E45">
+        <v>349194.20406467165</v>
+      </c>
+      <c r="F45">
         <f t="shared" si="4"/>
-        <v>349194.20406467165</v>
-      </c>
-      <c r="F45">
-        <f t="shared" si="1"/>
         <v>407.4833466436649</v>
       </c>
       <c r="G45">
@@ -7727,23 +7727,23 @@
         <v>2535000.1796108014</v>
       </c>
       <c r="B46">
+        <f t="shared" si="0"/>
+        <v>4278.5751397584818</v>
+      </c>
+      <c r="C46">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D46">
         <f t="shared" si="2"/>
-        <v>4278.5751397584818</v>
-      </c>
-      <c r="C46">
+        <v>23040.302683103579</v>
+      </c>
+      <c r="E46">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="D46">
-        <f t="shared" si="0"/>
-        <v>23040.302683103579</v>
-      </c>
-      <c r="E46">
+        <v>349194.20406467165</v>
+      </c>
+      <c r="F46">
         <f t="shared" si="4"/>
-        <v>349194.20406467165</v>
-      </c>
-      <c r="F46">
-        <f t="shared" si="1"/>
         <v>427.85751397584818</v>
       </c>
       <c r="G46">
@@ -7780,23 +7780,23 @@
         <v>2541119.4163629808</v>
       </c>
       <c r="B47">
+        <f t="shared" si="0"/>
+        <v>4492.5038967464052</v>
+      </c>
+      <c r="C47">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D47">
         <f t="shared" si="2"/>
-        <v>4492.5038967464052</v>
-      </c>
-      <c r="C47">
+        <v>22162.445170978997</v>
+      </c>
+      <c r="E47">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="D47">
-        <f t="shared" si="0"/>
-        <v>22162.445170978997</v>
-      </c>
-      <c r="E47">
+        <v>349194.20406467165</v>
+      </c>
+      <c r="F47">
         <f t="shared" si="4"/>
-        <v>349194.20406467165</v>
-      </c>
-      <c r="F47">
-        <f t="shared" si="1"/>
         <v>449.25038967464053</v>
       </c>
       <c r="G47">
@@ -7833,23 +7833,23 @@
         <v>2546410.5044761123</v>
       </c>
       <c r="B48">
+        <f t="shared" si="0"/>
+        <v>4717.1290915837253</v>
+      </c>
+      <c r="C48">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D48">
         <f t="shared" si="2"/>
-        <v>4717.1290915837253</v>
-      </c>
-      <c r="C48">
+        <v>21263.194779462341</v>
+      </c>
+      <c r="E48">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="D48">
-        <f t="shared" si="0"/>
-        <v>21263.194779462341</v>
-      </c>
-      <c r="E48">
+        <v>349194.20406467165</v>
+      </c>
+      <c r="F48">
         <f t="shared" si="4"/>
-        <v>349194.20406467165</v>
-      </c>
-      <c r="F48">
-        <f t="shared" si="1"/>
         <v>471.71290915837255</v>
       </c>
       <c r="G48">
@@ -7886,23 +7886,23 @@
         <v>2550985.5216808235</v>
       </c>
       <c r="B49">
+        <f t="shared" si="0"/>
+        <v>4952.9855461629122</v>
+      </c>
+      <c r="C49">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D49">
         <f t="shared" si="2"/>
-        <v>4952.9855461629122</v>
-      </c>
-      <c r="C49">
+        <v>20341.481872412616</v>
+      </c>
+      <c r="E49">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="D49">
-        <f t="shared" si="0"/>
-        <v>20341.481872412616</v>
-      </c>
-      <c r="E49">
+        <v>349194.20406467165</v>
+      </c>
+      <c r="F49">
         <f t="shared" si="4"/>
-        <v>349194.20406467165</v>
-      </c>
-      <c r="F49">
-        <f t="shared" si="1"/>
         <v>495.29855461629126</v>
       </c>
       <c r="G49">
@@ -7939,23 +7939,23 @@
         <v>2554941.3776363228</v>
       </c>
       <c r="B50">
+        <f t="shared" si="0"/>
+        <v>5200.6348234710576</v>
+      </c>
+      <c r="C50">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D50">
         <f t="shared" si="2"/>
-        <v>5200.6348234710576</v>
-      </c>
-      <c r="C50">
+        <v>19396.183315050883</v>
+      </c>
+      <c r="E50">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="D50">
-        <f t="shared" si="0"/>
-        <v>19396.183315050883</v>
-      </c>
-      <c r="E50">
+        <v>349194.20406467165</v>
+      </c>
+      <c r="F50">
         <f t="shared" si="4"/>
-        <v>349194.20406467165</v>
-      </c>
-      <c r="F50">
-        <f t="shared" si="1"/>
         <v>520.06348234710583</v>
       </c>
       <c r="G50">
@@ -7992,23 +7992,23 @@
         <v>2558361.8667056416</v>
       </c>
       <c r="B51">
+        <f t="shared" si="0"/>
+        <v>5460.6665646446099</v>
+      </c>
+      <c r="C51">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D51">
         <f t="shared" si="2"/>
-        <v>5460.6665646446099</v>
-      </c>
-      <c r="C51">
+        <v>18426.119836731588</v>
+      </c>
+      <c r="E51">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="D51">
-        <f t="shared" si="0"/>
-        <v>18426.119836731588</v>
-      </c>
-      <c r="E51">
+        <v>349194.20406467165</v>
+      </c>
+      <c r="F51">
         <f t="shared" si="4"/>
-        <v>349194.20406467165</v>
-      </c>
-      <c r="F51">
-        <f t="shared" si="1"/>
         <v>546.06665646446106</v>
       </c>
       <c r="G51">
@@ -8045,23 +8045,23 @@
         <v>2561319.442917956</v>
       </c>
       <c r="B52">
+        <f t="shared" si="0"/>
+        <v>5733.6998928768398</v>
+      </c>
+      <c r="C52">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D52">
         <f t="shared" si="2"/>
-        <v>5733.6998928768398</v>
-      </c>
-      <c r="C52">
+        <v>17430.053173659733</v>
+      </c>
+      <c r="E52">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="D52">
-        <f t="shared" si="0"/>
-        <v>17430.053173659733</v>
-      </c>
-      <c r="E52">
+        <v>349194.20406467165</v>
+      </c>
+      <c r="F52">
         <f t="shared" si="4"/>
-        <v>349194.20406467165</v>
-      </c>
-      <c r="F52">
-        <f t="shared" si="1"/>
         <v>573.36998928768401</v>
       </c>
       <c r="G52">
@@ -8098,23 +8098,23 @@
         <v>2563876.7547158832</v>
       </c>
       <c r="B53">
+        <f t="shared" si="0"/>
+        <v>6020.3848875206813</v>
+      </c>
+      <c r="C53">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D53">
         <f t="shared" si="2"/>
-        <v>6020.3848875206813</v>
-      </c>
-      <c r="C53">
+        <v>16406.683196413811</v>
+      </c>
+      <c r="E53">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="D53">
-        <f t="shared" si="0"/>
-        <v>16406.683196413811</v>
-      </c>
-      <c r="E53">
+        <v>349194.20406467165</v>
+      </c>
+      <c r="F53">
         <f t="shared" si="4"/>
-        <v>349194.20406467165</v>
-      </c>
-      <c r="F53">
-        <f t="shared" si="1"/>
         <v>602.03848875206813</v>
       </c>
       <c r="G53">
@@ -8151,23 +8151,23 @@
         <v>2566087.9719973137</v>
       </c>
       <c r="B54">
+        <f t="shared" si="0"/>
+        <v>6321.4041318967147</v>
+      </c>
+      <c r="C54">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D54">
         <f t="shared" si="2"/>
-        <v>6321.4041318967147</v>
-      </c>
-      <c r="C54">
+        <v>15354.644683414577</v>
+      </c>
+      <c r="E54">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="D54">
-        <f t="shared" si="0"/>
-        <v>15354.644683414577</v>
-      </c>
-      <c r="E54">
+        <v>349194.20406467165</v>
+      </c>
+      <c r="F54">
         <f t="shared" si="4"/>
-        <v>349194.20406467165</v>
-      </c>
-      <c r="F54">
-        <f t="shared" si="1"/>
         <v>632.14041318967156</v>
       </c>
       <c r="G54">
@@ -8204,23 +8204,23 @@
         <v>2567999.9335616636</v>
       </c>
       <c r="B55">
+        <f t="shared" si="0"/>
+        <v>6637.474338491551</v>
+      </c>
+      <c r="C55">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D55">
         <f t="shared" si="2"/>
-        <v>6637.474338491551</v>
-      </c>
-      <c r="C55">
+        <v>14272.504323914663</v>
+      </c>
+      <c r="E55">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="D55">
-        <f t="shared" si="0"/>
-        <v>14272.504323914663</v>
-      </c>
-      <c r="E55">
+        <v>349194.20406467165</v>
+      </c>
+      <c r="F55">
         <f t="shared" si="4"/>
-        <v>349194.20406467165</v>
-      </c>
-      <c r="F55">
-        <f t="shared" si="1"/>
         <v>663.74743384915519</v>
       </c>
       <c r="G55">
@@ -8257,23 +8257,23 @@
         <v>2569653.1392661645</v>
       </c>
       <c r="B56">
+        <f t="shared" si="0"/>
+        <v>6969.3480554161288</v>
+      </c>
+      <c r="C56">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D56">
         <f t="shared" si="2"/>
-        <v>6969.3480554161288</v>
-      </c>
-      <c r="C56">
+        <v>13158.75675986876</v>
+      </c>
+      <c r="E56">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="D56">
-        <f t="shared" si="0"/>
-        <v>13158.75675986876</v>
-      </c>
-      <c r="E56">
+        <v>349194.20406467165</v>
+      </c>
+      <c r="F56">
         <f t="shared" si="4"/>
-        <v>349194.20406467165</v>
-      </c>
-      <c r="F56">
-        <f t="shared" si="1"/>
         <v>696.93480554161295</v>
       </c>
       <c r="G56">
@@ -8310,23 +8310,23 @@
         <v>2571082.6079083984</v>
       </c>
       <c r="B57">
+        <f t="shared" si="0"/>
+        <v>7317.8154581869358</v>
+      </c>
+      <c r="C57">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D57">
         <f t="shared" si="2"/>
-        <v>7317.8154581869358</v>
-      </c>
-      <c r="C57">
+        <v>12011.822298857951</v>
+      </c>
+      <c r="E57">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="D57">
-        <f t="shared" si="0"/>
-        <v>12011.822298857951</v>
-      </c>
-      <c r="E57">
+        <v>349194.20406467165</v>
+      </c>
+      <c r="F57">
         <f t="shared" si="4"/>
-        <v>349194.20406467165</v>
-      </c>
-      <c r="F57">
-        <f t="shared" si="1"/>
         <v>731.78154581869364</v>
       </c>
       <c r="G57">
@@ -8363,23 +8363,23 @@
         <v>2572318.619007058</v>
       </c>
       <c r="B58">
+        <f t="shared" si="0"/>
+        <v>7683.706231096282</v>
+      </c>
+      <c r="C58">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D58">
         <f t="shared" si="2"/>
-        <v>7683.706231096282</v>
-      </c>
-      <c r="C58">
+        <v>10830.039761292303</v>
+      </c>
+      <c r="E58">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="D58">
-        <f t="shared" si="0"/>
-        <v>10830.039761292303</v>
-      </c>
-      <c r="E58">
+        <v>349194.20406467165</v>
+      </c>
+      <c r="F58">
         <f t="shared" si="4"/>
-        <v>349194.20406467165</v>
-      </c>
-      <c r="F58">
-        <f t="shared" si="1"/>
         <v>768.37062310962824</v>
       </c>
       <c r="G58">
@@ -8416,23 +8416,23 @@
         <v>2573387.3541935966</v>
       </c>
       <c r="B59">
+        <f t="shared" si="0"/>
+        <v>8067.8915426510966</v>
+      </c>
+      <c r="C59">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D59">
         <f t="shared" si="2"/>
-        <v>8067.8915426510966</v>
-      </c>
-      <c r="C59">
+        <v>9611.672234883601</v>
+      </c>
+      <c r="E59">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="D59">
-        <f t="shared" si="0"/>
-        <v>9611.672234883601</v>
-      </c>
-      <c r="E59">
+        <v>349194.20406467165</v>
+      </c>
+      <c r="F59">
         <f t="shared" si="4"/>
-        <v>349194.20406467165</v>
-      </c>
-      <c r="F59">
-        <f t="shared" si="1"/>
         <v>806.78915426510969</v>
       </c>
       <c r="G59">
@@ -8469,23 +8469,23 @@
         <v>2574311.4518009601</v>
       </c>
       <c r="B60">
+        <f t="shared" si="0"/>
+        <v>8471.2861197836519</v>
+      </c>
+      <c r="C60">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D60">
         <f t="shared" si="2"/>
-        <v>8471.2861197836519</v>
-      </c>
-      <c r="C60">
+        <v>8354.8726181221937</v>
+      </c>
+      <c r="E60">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="D60">
-        <f t="shared" si="0"/>
-        <v>8354.8726181221937</v>
-      </c>
-      <c r="E60">
+        <v>349194.20406467165</v>
+      </c>
+      <c r="F60">
         <f t="shared" si="4"/>
-        <v>349194.20406467165</v>
-      </c>
-      <c r="F60">
-        <f t="shared" si="1"/>
         <v>847.12861197836526</v>
       </c>
       <c r="G60">
@@ -8522,23 +8522,23 @@
         <v>2575110.4863968934</v>
       </c>
       <c r="B61">
+        <f t="shared" si="0"/>
+        <v>8894.8504257728346</v>
+      </c>
+      <c r="C61">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D61">
         <f t="shared" si="2"/>
-        <v>8894.8504257728346</v>
-      </c>
-      <c r="C61">
+        <v>7057.7821683510047</v>
+      </c>
+      <c r="E61">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="D61">
-        <f t="shared" si="0"/>
-        <v>7057.7821683510047</v>
-      </c>
-      <c r="E61">
+        <v>349194.20406467165</v>
+      </c>
+      <c r="F61">
         <f t="shared" si="4"/>
-        <v>349194.20406467165</v>
-      </c>
-      <c r="F61">
-        <f t="shared" si="1"/>
         <v>889.48504257728348</v>
       </c>
       <c r="G61">
@@ -8575,23 +8575,23 @@
         <v>2575801.3834194699</v>
       </c>
       <c r="B62">
+        <f t="shared" si="0"/>
+        <v>9339.5929470614774</v>
+      </c>
+      <c r="C62">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D62">
         <f t="shared" si="2"/>
-        <v>9339.5929470614774</v>
-      </c>
-      <c r="C62">
+        <v>5718.1471521049079</v>
+      </c>
+      <c r="E62">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="D62">
-        <f t="shared" si="0"/>
-        <v>5718.1471521049079</v>
-      </c>
-      <c r="E62">
+        <v>349194.20406467165</v>
+      </c>
+      <c r="F62">
         <f t="shared" si="4"/>
-        <v>349194.20406467165</v>
-      </c>
-      <c r="F62">
-        <f t="shared" si="1"/>
         <v>933.95929470614783</v>
       </c>
       <c r="G62">
@@ -8628,23 +8628,23 @@
         <v>2576398.777697809</v>
       </c>
       <c r="B63">
+        <f t="shared" si="0"/>
+        <v>9806.5725944145524</v>
+      </c>
+      <c r="C63">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D63">
         <f t="shared" si="2"/>
-        <v>9806.5725944145524</v>
-      </c>
-      <c r="C63">
+        <v>4334.8217054074594</v>
+      </c>
+      <c r="E63">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="D63">
-        <f t="shared" si="0"/>
-        <v>4334.8217054074594</v>
-      </c>
-      <c r="E63">
+        <v>349194.20406467165</v>
+      </c>
+      <c r="F63">
         <f t="shared" si="4"/>
-        <v>349194.20406467165</v>
-      </c>
-      <c r="F63">
-        <f t="shared" si="1"/>
         <v>980.65725944145527</v>
       </c>
       <c r="G63">
@@ -8681,23 +8681,23 @@
         <v>2576915.323452285</v>
       </c>
       <c r="B64">
+        <f t="shared" si="0"/>
+        <v>10296.901224135281</v>
+      </c>
+      <c r="C64">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D64">
         <f t="shared" si="2"/>
-        <v>10296.901224135281</v>
-      </c>
-      <c r="C64">
+        <v>2901.2882243093109</v>
+      </c>
+      <c r="E64">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="D64">
-        <f t="shared" si="0"/>
-        <v>2901.2882243093109</v>
-      </c>
-      <c r="E64">
+        <v>349194.20406467165</v>
+      </c>
+      <c r="F64">
         <f t="shared" si="4"/>
-        <v>349194.20406467165</v>
-      </c>
-      <c r="F64">
-        <f t="shared" si="1"/>
         <v>1029.6901224135281</v>
       </c>
       <c r="G64">
@@ -8734,23 +8734,23 @@
         <v>2577361.962340774</v>
       </c>
       <c r="B65">
+        <f t="shared" si="0"/>
+        <v>10811.746285342044</v>
+      </c>
+      <c r="C65">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D65">
         <f t="shared" si="2"/>
-        <v>10811.746285342044</v>
-      </c>
-      <c r="C65">
+        <v>1435.589772114188</v>
+      </c>
+      <c r="E65">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="D65">
-        <f t="shared" si="0"/>
-        <v>1435.589772114188</v>
-      </c>
-      <c r="E65">
+        <v>349194.20406467165</v>
+      </c>
+      <c r="F65">
         <f t="shared" si="4"/>
-        <v>349194.20406467165</v>
-      </c>
-      <c r="F65">
-        <f t="shared" si="1"/>
         <v>1081.1746285342044</v>
       </c>
       <c r="G65">
@@ -8787,23 +8787,23 @@
         <v>2577748.1552287852</v>
       </c>
       <c r="B66">
+        <f t="shared" si="0"/>
+        <v>11352.333599609146</v>
+      </c>
+      <c r="C66">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D66">
         <f t="shared" si="2"/>
-        <v>11352.333599609146</v>
-      </c>
-      <c r="C66">
+        <v>0</v>
+      </c>
+      <c r="E66">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="D66">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E66">
+        <v>349194.20406467165</v>
+      </c>
+      <c r="F66">
         <f t="shared" si="4"/>
-        <v>349194.20406467165</v>
-      </c>
-      <c r="F66">
-        <f t="shared" si="1"/>
         <v>1135.2333599609146</v>
       </c>
       <c r="G66">
@@ -8840,11 +8840,11 @@
         <v>2578082.0825929134</v>
       </c>
       <c r="B67">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>11919.950279589602</v>
       </c>
       <c r="C67">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="D67">
@@ -8852,7 +8852,7 @@
         <v>0</v>
       </c>
       <c r="E67">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>349194.20406467165</v>
       </c>
       <c r="F67">
